--- a/Experimentations.xlsx
+++ b/Experimentations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UWA\Masters\2023\Semester 2\CITS5507 - High Performance Computing\Projects\CITS5507-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FD42C6-1F19-4077-A9F6-A4D4D13F9223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674A6B16-90C8-41F3-8D95-C24CCEFB1640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="1" xr2:uid="{2FDA451D-D6EC-4598-94BE-9F2AB2EE5350}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{2FDA451D-D6EC-4598-94BE-9F2AB2EE5350}"/>
   </bookViews>
   <sheets>
     <sheet name="Threads Experiment" sheetId="1" r:id="rId1"/>
@@ -154,6 +154,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>The</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Effect of the Number of Threads on Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -217,10 +246,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Threads Experiment'!$A$2:$A$11</c:f>
+              <c:f>'Threads Experiment'!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -247,30 +276,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Threads Experiment'!$G$2:$G$11</c:f>
+              <c:f>'Threads Experiment'!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.95259740259740266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8378378378378382</c:v>
+                  <c:v>0.95516569200779733</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8652343749999996</c:v>
+                  <c:v>0.94280205655526983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8272552783109406</c:v>
+                  <c:v>0.94970986460348161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.87109375</c:v>
+                  <c:v>0.94594594594594594</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8157389635316696</c:v>
+                  <c:v>0.94767441860465107</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8540856031128405</c:v>
+                  <c:v>0.92906903103229899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -301,6 +330,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -366,6 +450,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> (Sequential/Parallel Time)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3872832369942197E-2"/>
+              <c:y val="0.43405629265154227"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -398,6 +550,412 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="984596400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>The Effect of Number of Fishes on Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Fish Experiment'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1 000 000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 000 000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 000 000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20 000 000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50 000 000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100 000 000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fish Experiment'!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.93506493506493504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97276264591439698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96985246953175119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95093608779857974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95858443390178227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95022102633096284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-25B4-4D24-BF60-1CE9AA664C45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1040166880"/>
+        <c:axId val="1040167240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1040166880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Number of Fishes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1040167240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1040167240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1040166880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -493,7 +1051,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1014,15 +2128,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1030,6 +2144,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E97977-3555-2C2E-95C1-63F0FB279663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1609724</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E662B2D-0854-8857-F728-6A7BFE80BCC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +2505,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,15 +2572,21 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C3">
-        <v>5.18</v>
+        <v>5.13</v>
+      </c>
+      <c r="D3">
+        <v>5.13</v>
+      </c>
+      <c r="E3">
+        <v>5.13</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>1.7266666666666666</v>
+        <v>5.13</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G8" si="1">B3/F3</f>
-        <v>2.8378378378378382</v>
+        <v>0.95516569200779733</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1436,15 +2597,21 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="C4">
-        <v>5.12</v>
+        <v>5.15</v>
+      </c>
+      <c r="D4">
+        <v>5.24</v>
+      </c>
+      <c r="E4">
+        <v>5.17</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>1.7066666666666668</v>
+        <v>5.1866666666666665</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>2.8652343749999996</v>
+        <v>0.94280205655526983</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1455,15 +2622,21 @@
         <v>4.91</v>
       </c>
       <c r="C5">
-        <v>5.21</v>
+        <v>5.17</v>
+      </c>
+      <c r="D5">
+        <v>5.17</v>
+      </c>
+      <c r="E5">
+        <v>5.17</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>1.7366666666666666</v>
+        <v>5.17</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>2.8272552783109406</v>
+        <v>0.94970986460348161</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1474,15 +2647,21 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C6">
-        <v>5.12</v>
+        <v>5.23</v>
+      </c>
+      <c r="D6">
+        <v>5.15</v>
+      </c>
+      <c r="E6">
+        <v>5.16</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>1.7066666666666668</v>
+        <v>5.1800000000000006</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>2.87109375</v>
+        <v>0.94594594594594594</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1493,15 +2672,21 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="C7">
-        <v>5.21</v>
+        <v>5.16</v>
+      </c>
+      <c r="D7">
+        <v>5.16</v>
+      </c>
+      <c r="E7">
+        <v>5.16</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>1.7366666666666666</v>
+        <v>5.16</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>2.8157389635316696</v>
+        <v>0.94767441860465107</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1512,15 +2697,21 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="C8">
-        <v>5.14</v>
+        <v>5.31</v>
+      </c>
+      <c r="D8">
+        <v>5.19</v>
+      </c>
+      <c r="E8">
+        <v>5.29</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>1.7133333333333332</v>
+        <v>5.2633333333333328</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>2.8540856031128405</v>
+        <v>0.92906903103229899</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +2725,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,33 +2766,154 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>0.48</v>
+      </c>
+      <c r="C2">
+        <v>0.52</v>
+      </c>
+      <c r="D2">
+        <v>0.51</v>
+      </c>
+      <c r="E2">
+        <v>0.51</v>
+      </c>
+      <c r="F2">
+        <f>(C2+D2+E2) / 3</f>
+        <v>0.51333333333333331</v>
+      </c>
+      <c r="G2">
+        <f>B2/F2</f>
+        <v>0.93506493506493504</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>2.5</v>
+      </c>
+      <c r="C3">
+        <v>2.57</v>
+      </c>
+      <c r="D3">
+        <v>2.57</v>
+      </c>
+      <c r="E3">
+        <v>2.57</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="0">(C3+D3+E3) / 3</f>
+        <v>2.57</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="1">B3/F3</f>
+        <v>0.97276264591439698</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>5.04</v>
+      </c>
+      <c r="C4">
+        <v>5.16</v>
+      </c>
+      <c r="D4">
+        <v>5.21</v>
+      </c>
+      <c r="E4">
+        <v>5.22</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>5.1966666666666663</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.96985246953175119</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>9.82</v>
+      </c>
+      <c r="C5">
+        <v>10.33</v>
+      </c>
+      <c r="D5">
+        <v>10.28</v>
+      </c>
+      <c r="E5">
+        <v>10.37</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>10.326666666666666</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.95093608779857974</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
+      <c r="B6">
+        <v>24.92</v>
+      </c>
+      <c r="C6">
+        <v>25.96</v>
+      </c>
+      <c r="D6">
+        <v>25.99</v>
+      </c>
+      <c r="E6">
+        <v>26.04</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>25.99666666666667</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.95858443390178227</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
+      <c r="B7">
+        <v>49.44</v>
+      </c>
+      <c r="C7">
+        <v>51.77</v>
+      </c>
+      <c r="D7">
+        <v>52.53</v>
+      </c>
+      <c r="E7">
+        <v>51.79</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>52.03</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.95022102633096284</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>